--- a/restAPI/UPLOAD_FOLDER/anotherTry.xlsx
+++ b/restAPI/UPLOAD_FOLDER/anotherTry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nina\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D93A57-DB1E-48FA-B7C0-6F9D0CEA678F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166DF928-902A-4A07-BBA6-1E62D674165A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2496" windowWidth="17280" windowHeight="8880" xr2:uid="{6D4BA0C0-EB2E-44C7-A699-5C34011BF6C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D4BA0C0-EB2E-44C7-A699-5C34011BF6C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
   <dimension ref="C1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,6 +669,9 @@
       <c r="H3">
         <v>-5</v>
       </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
       <c r="J3">
         <v>97</v>
       </c>

--- a/restAPI/UPLOAD_FOLDER/anotherTry.xlsx
+++ b/restAPI/UPLOAD_FOLDER/anotherTry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nina\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166DF928-902A-4A07-BBA6-1E62D674165A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1FDBC9-2A76-4A34-9058-0574485189F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D4BA0C0-EB2E-44C7-A699-5C34011BF6C5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>code</t>
   </si>
@@ -506,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAD03ED-B933-4825-93AA-8238894F02C4}">
-  <dimension ref="C1:X4"/>
+  <dimension ref="C1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,6 +783,609 @@
         <v>32</v>
       </c>
     </row>
+    <row r="5" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>123</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>56</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>33</v>
+      </c>
+      <c r="R5">
+        <v>333</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5" t="s">
+        <v>24</v>
+      </c>
+      <c r="X5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>222</v>
+      </c>
+      <c r="E6">
+        <v>112</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>-5</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>97</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>66</v>
+      </c>
+      <c r="S6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W6" t="s">
+        <v>30</v>
+      </c>
+      <c r="X6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>9134</v>
+      </c>
+      <c r="D7">
+        <v>120</v>
+      </c>
+      <c r="E7">
+        <v>45</v>
+      </c>
+      <c r="F7">
+        <v>34</v>
+      </c>
+      <c r="G7">
+        <v>55</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>34</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>-5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>22</v>
+      </c>
+      <c r="Q7">
+        <v>22</v>
+      </c>
+      <c r="R7">
+        <v>33</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>33</v>
+      </c>
+      <c r="W7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>56</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>33</v>
+      </c>
+      <c r="R8">
+        <v>333</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8" t="s">
+        <v>24</v>
+      </c>
+      <c r="X8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>76</v>
+      </c>
+      <c r="D9">
+        <v>222</v>
+      </c>
+      <c r="E9">
+        <v>112</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>-5</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>97</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>66</v>
+      </c>
+      <c r="S9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" t="s">
+        <v>29</v>
+      </c>
+      <c r="W9" t="s">
+        <v>30</v>
+      </c>
+      <c r="X9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>121</v>
+      </c>
+      <c r="D10">
+        <v>120</v>
+      </c>
+      <c r="E10">
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <v>55</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+      <c r="L10">
+        <v>34</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>-5</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>22</v>
+      </c>
+      <c r="Q10">
+        <v>22</v>
+      </c>
+      <c r="R10">
+        <v>33</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>33</v>
+      </c>
+      <c r="W10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>765</v>
+      </c>
+      <c r="D11">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>56</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>33</v>
+      </c>
+      <c r="R11">
+        <v>333</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" t="s">
+        <v>23</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11" t="s">
+        <v>24</v>
+      </c>
+      <c r="X11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>222</v>
+      </c>
+      <c r="E12">
+        <v>112</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>-5</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>97</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>66</v>
+      </c>
+      <c r="S12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" t="s">
+        <v>29</v>
+      </c>
+      <c r="W12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>9124</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+      <c r="E13">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>55</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>34</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>-5</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>22</v>
+      </c>
+      <c r="Q13">
+        <v>22</v>
+      </c>
+      <c r="R13">
+        <v>33</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>33</v>
+      </c>
+      <c r="W13" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
